--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\InputData\bldgs\EoBSDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoBSDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_694D5200193DDFEAD0C84A92CAC7DAC79B815B94" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="140" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EoBSDwEC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>EoBSDwEC Elasticity of Building Service Demand wrt Energy Cost</t>
   </si>
@@ -40,88 +31,96 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/residential.pdf</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/commercial.pdf</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>These are short-term elasticities, which are intended to reflect behavior change</t>
+  </si>
+  <si>
+    <t>rather than equipment change in the model.</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>petroleum diesel</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>In the EIA source material, Residential elasticities are disaggregated by fuel,</t>
+  </si>
+  <si>
+    <t>while Commercial elasticities are not.  On the Commercial side, refrigeration</t>
+  </si>
+  <si>
+    <t>has a lower elasticity than other energy uses (-.1 instead of -.25), but we group</t>
+  </si>
+  <si>
+    <t>refrigeration with other appliances in our model and so disregard this difference.</t>
+  </si>
+  <si>
+    <t>Urban Residential</t>
+  </si>
+  <si>
+    <t>Rural Residential</t>
+  </si>
+  <si>
     <t>Assumptions to the Annual Energy Outlook 2015</t>
   </si>
   <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/residential.pdf</t>
-  </si>
-  <si>
     <t>Residential Demand Module, Page 29</t>
   </si>
   <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/commercial.pdf</t>
-  </si>
-  <si>
     <t>Commercial Demand Module, Page 42</t>
   </si>
   <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>These are short-term elasticities, which are intended to reflect behavior change</t>
-  </si>
-  <si>
-    <t>rather than equipment change in the model.</t>
-  </si>
-  <si>
-    <t>In the EIA source material, Residential elasticities are disaggregated by fuel,</t>
-  </si>
-  <si>
-    <t>while Commercial elasticities are not.  On the Commercial side, refrigeration</t>
-  </si>
-  <si>
-    <t>has a lower elasticity than other energy uses (-.1 instead of -.25), but we group</t>
-  </si>
-  <si>
-    <t>refrigeration with other appliances in our model and so disregard this difference.</t>
-  </si>
-  <si>
-    <t>use US data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Urban Residential</t>
-  </si>
-  <si>
-    <t>Rural Residential</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>natural gas</t>
-  </si>
-  <si>
-    <t>petroleum diesel</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
     <t>biomass</t>
+  </si>
+  <si>
+    <t>kerosene</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Elasticity by Fuel (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -129,7 +128,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -137,23 +136,8 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,7 +172,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -283,23 +269,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -335,23 +304,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,25 +479,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,112 +502,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
@@ -667,12 +610,12 @@
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>-0.3</v>
@@ -684,9 +627,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>-0.15</v>
@@ -698,9 +641,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>-0.15</v>
@@ -712,9 +655,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>-0.15</v>
@@ -726,9 +669,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>-0.15</v>
@@ -740,9 +683,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>-0.15</v>
@@ -754,22 +697,68 @@
         <v>-0.25</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>-0.15</v>
+      </c>
+      <c r="C8">
+        <v>-0.15</v>
+      </c>
+      <c r="D8">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>-0.15</v>
+      </c>
+      <c r="C9">
+        <v>-0.15</v>
+      </c>
+      <c r="D9">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>-0.15</v>
+      </c>
+      <c r="C10">
+        <v>-0.15</v>
+      </c>
+      <c r="D10">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>-0.15</v>
+      </c>
+      <c r="C11">
+        <v>-0.15</v>
+      </c>
+      <c r="D11">
+        <v>-0.25</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1003,7 +992,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1012,14 +1001,23 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B25C45-04AB-47C4-81EB-5E8F17105CDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA0E58B6-FE8C-4C8D-BE13-604C28E9907F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6675CEC0-62F2-4D92-96E9-2EB7366A3418}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF75141-EA39-49EE-A1D3-64CCA3CFA8BE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDCE1F08-7091-41D8-B571-6150DD1D4A86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{942F5247-3C57-478B-B656-261E803E70C1}"/>
 </file>
--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoBSDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\InputData\bldgs\EoBSDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_694D5200193DDFEAD0C84A92CAC7DAC79B815B94" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="360" yWindow="140" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EoBSDwEC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>EoBSDwEC Elasticity of Building Service Demand wrt Energy Cost</t>
   </si>
@@ -31,18 +40,27 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
+    <t>Assumptions to the Annual Energy Outlook 2015</t>
+  </si>
+  <si>
     <t>Residential</t>
   </si>
   <si>
     <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/residential.pdf</t>
   </si>
   <si>
+    <t>Residential Demand Module, Page 29</t>
+  </si>
+  <si>
     <t>Commercial</t>
   </si>
   <si>
     <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/commercial.pdf</t>
   </si>
   <si>
+    <t>Commercial Demand Module, Page 42</t>
+  </si>
+  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -52,6 +70,31 @@
     <t>rather than equipment change in the model.</t>
   </si>
   <si>
+    <t>In the EIA source material, Residential elasticities are disaggregated by fuel,</t>
+  </si>
+  <si>
+    <t>while Commercial elasticities are not.  On the Commercial side, refrigeration</t>
+  </si>
+  <si>
+    <t>has a lower elasticity than other energy uses (-.1 instead of -.25), but we group</t>
+  </si>
+  <si>
+    <t>refrigeration with other appliances in our model and so disregard this difference.</t>
+  </si>
+  <si>
+    <t>use US data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Urban Residential</t>
+  </si>
+  <si>
+    <t>Rural Residential</t>
+  </si>
+  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -67,60 +110,18 @@
     <t>heat</t>
   </si>
   <si>
-    <t>In the EIA source material, Residential elasticities are disaggregated by fuel,</t>
-  </si>
-  <si>
-    <t>while Commercial elasticities are not.  On the Commercial side, refrigeration</t>
-  </si>
-  <si>
-    <t>has a lower elasticity than other energy uses (-.1 instead of -.25), but we group</t>
-  </si>
-  <si>
-    <t>refrigeration with other appliances in our model and so disregard this difference.</t>
-  </si>
-  <si>
-    <t>Urban Residential</t>
-  </si>
-  <si>
-    <t>Rural Residential</t>
-  </si>
-  <si>
-    <t>Assumptions to the Annual Energy Outlook 2015</t>
-  </si>
-  <si>
-    <t>Residential Demand Module, Page 29</t>
-  </si>
-  <si>
-    <t>Commercial Demand Module, Page 42</t>
-  </si>
-  <si>
     <t>biomass</t>
-  </si>
-  <si>
-    <t>kerosene</t>
-  </si>
-  <si>
-    <t>heavy or residual fuel oil</t>
-  </si>
-  <si>
-    <t>LPG propane or butane</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>Elasticity by Fuel (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -128,7 +129,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -136,8 +137,23 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,9 +188,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -269,6 +283,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -304,6 +335,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,22 +527,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,106 +553,112 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:2">
+      <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>29</v>
+    <row r="1" spans="1:4" ht="14.45">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
@@ -610,12 +667,12 @@
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>-0.3</v>
@@ -627,9 +684,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>-0.15</v>
@@ -641,9 +698,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>-0.15</v>
@@ -655,9 +712,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.45">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>-0.15</v>
@@ -669,9 +726,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.45">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>-0.15</v>
@@ -683,9 +740,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>-0.15</v>
@@ -697,68 +754,22 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>-0.15</v>
-      </c>
-      <c r="C8">
-        <v>-0.15</v>
-      </c>
-      <c r="D8">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>-0.15</v>
-      </c>
-      <c r="C9">
-        <v>-0.15</v>
-      </c>
-      <c r="D9">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>-0.15</v>
-      </c>
-      <c r="C10">
-        <v>-0.15</v>
-      </c>
-      <c r="D10">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>-0.15</v>
-      </c>
-      <c r="C11">
-        <v>-0.15</v>
-      </c>
-      <c r="D11">
-        <v>-0.25</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -992,7 +1003,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1001,23 +1012,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B25C45-04AB-47C4-81EB-5E8F17105CDB}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA0E58B6-FE8C-4C8D-BE13-604C28E9907F}"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6675CEC0-62F2-4D92-96E9-2EB7366A3418}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF75141-EA39-49EE-A1D3-64CCA3CFA8BE}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{942F5247-3C57-478B-B656-261E803E70C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDCE1F08-7091-41D8-B571-6150DD1D4A86}"/>
 </file>